--- a/珠海藤仓基板压合设备设计资料.xlsx
+++ b/珠海藤仓基板压合设备设计资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="物料清单" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="190">
   <si>
     <t>序号</t>
   </si>
@@ -748,6 +748,14 @@
   </si>
   <si>
     <t>进到位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色灯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GL-8H</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1245,15 +1253,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1263,43 +1262,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1317,9 +1289,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1327,9 +1296,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1345,14 +1311,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1368,9 +1328,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1404,9 +1361,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1457,6 +1411,60 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="38">
@@ -1796,10 +1804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1815,2014 +1823,2033 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:19" ht="14.25" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="18" t="s">
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="77"/>
+      <c r="J2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="40">
+      <c r="A7" s="27">
         <v>1</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="30">
         <v>1</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="40">
+      <c r="A8" s="27">
         <v>2</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="30">
         <v>1</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="40">
+      <c r="A9" s="27">
         <v>3</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="30">
         <v>1</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="40">
+      <c r="A10" s="27">
         <v>4</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="30">
         <v>1</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="40"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="30">
         <v>1</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="40"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="30">
         <v>1</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="40">
+      <c r="A13" s="27">
         <v>5</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="81"/>
+      <c r="C13" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="30">
         <v>1</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="40">
+      <c r="A14" s="27">
         <v>6</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="41" t="s">
         <v>119</v>
       </c>
       <c r="E14" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="30">
         <v>2</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47" t="s">
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="40">
+      <c r="A15" s="27">
         <v>7</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="71"/>
+      <c r="C15" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="41" t="s">
         <v>123</v>
       </c>
       <c r="E15" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="30">
         <v>2</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="40">
+      <c r="A16" s="27">
         <v>8</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="41" t="s">
         <v>119</v>
       </c>
       <c r="E16" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="30">
         <v>1</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="40">
+      <c r="A17" s="27">
         <v>9</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="41" t="s">
         <v>125</v>
       </c>
       <c r="E17" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="30">
         <v>1</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47" t="s">
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="40">
+      <c r="A18" s="27">
         <v>10</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="44">
+      <c r="E18" s="31"/>
+      <c r="F18" s="30">
         <v>1</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="40">
+      <c r="A19" s="27">
         <v>11</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="44">
+      <c r="D19" s="41"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="30">
         <v>1</v>
       </c>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="40"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="44">
+      <c r="E20" s="31"/>
+      <c r="F20" s="30">
         <v>2</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47" t="s">
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="40"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="44">
+      <c r="E21" s="31"/>
+      <c r="F21" s="30">
         <v>1</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="40"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="57" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="30">
+        <v>1</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="27"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="44">
+      <c r="D23" s="41"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="30">
         <v>1</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="G23" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="40">
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="27">
         <v>12</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="57" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D24" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E24" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F24" s="30">
         <v>1</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="40">
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="27">
         <v>13</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B25" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C25" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D25" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="44">
+      <c r="E25" s="31"/>
+      <c r="F25" s="30">
         <v>1</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G25" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="40">
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="27">
         <v>14</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57" t="s">
+      <c r="B26" s="71"/>
+      <c r="C26" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D26" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E26" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F26" s="30">
         <v>6</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="G26" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H26" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="40"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57" t="s">
+      <c r="I26" s="32"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="27"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44">
+      <c r="D27" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="30">
+        <v>2</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="27">
+        <v>15</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30">
         <v>1</v>
       </c>
-      <c r="G26" s="59" t="s">
+      <c r="G28" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="30"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+    </row>
+    <row r="29" spans="1:19" ht="24">
+      <c r="A29" s="27">
+        <v>16</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="30">
+        <v>1</v>
+      </c>
+      <c r="G29" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="40">
-        <v>15</v>
-      </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44">
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="27">
+        <v>17</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="30">
         <v>1</v>
       </c>
-      <c r="G27" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-    </row>
-    <row r="28" spans="1:19" ht="24">
-      <c r="A28" s="40">
-        <v>16</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="44">
+      <c r="G30" s="42"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="27">
+        <v>18</v>
+      </c>
+      <c r="B31" s="72"/>
+      <c r="C31" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="30">
         <v>1</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G31" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="40">
-        <v>17</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="44">
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="27">
+        <v>19</v>
+      </c>
+      <c r="B32" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="30">
         <v>1</v>
       </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="40">
-        <v>18</v>
-      </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="44">
+      <c r="G32" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="27">
+        <v>20</v>
+      </c>
+      <c r="B33" s="71"/>
+      <c r="C33" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="30">
         <v>1</v>
       </c>
-      <c r="G30" s="59" t="s">
+      <c r="G33" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="40">
-        <v>19</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="44">
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="27">
+        <v>21</v>
+      </c>
+      <c r="B34" s="71"/>
+      <c r="C34" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="27">
+        <v>22</v>
+      </c>
+      <c r="B35" s="71"/>
+      <c r="C35" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="30">
         <v>1</v>
       </c>
-      <c r="G31" s="59" t="s">
+      <c r="G35" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="40">
-        <v>20</v>
-      </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="44">
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="27">
+        <v>23</v>
+      </c>
+      <c r="B36" s="71"/>
+      <c r="C36" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="30">
         <v>1</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G36" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="45"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="40">
-        <v>21</v>
-      </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="44" t="s">
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="27">
+        <v>24</v>
+      </c>
+      <c r="B37" s="71"/>
+      <c r="C37" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="G33" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="40">
-        <v>22</v>
-      </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="44">
+      <c r="G37" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="31"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="27">
+        <v>25</v>
+      </c>
+      <c r="B38" s="71"/>
+      <c r="C38" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="30">
         <v>1</v>
       </c>
-      <c r="G34" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="40">
-        <v>23</v>
-      </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="44">
-        <v>1</v>
-      </c>
-      <c r="G35" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="45"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="40">
-        <v>24</v>
-      </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G36" s="59" t="s">
+      <c r="G38" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="40">
-        <v>25</v>
-      </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="44">
-        <v>1</v>
-      </c>
-      <c r="G37" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38" s="40">
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="27">
         <v>26</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="57" t="s">
+      <c r="B39" s="71"/>
+      <c r="C39" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="44">
-        <v>1</v>
-      </c>
-      <c r="G38" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H38" s="45"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="A39" s="40">
-        <v>27</v>
-      </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="29" t="s">
         <v>162</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F39" s="44">
+      <c r="F39" s="30">
         <v>1</v>
       </c>
-      <c r="G39" s="59" t="s">
+      <c r="G39" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="40">
-        <v>28</v>
-      </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="43" t="s">
+      <c r="A40" s="27">
+        <v>27</v>
+      </c>
+      <c r="B40" s="71"/>
+      <c r="C40" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="29" t="s">
         <v>162</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="30">
         <v>1</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="H40" s="52"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="40">
-        <v>29</v>
-      </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>167</v>
+      <c r="A41" s="27">
+        <v>28</v>
+      </c>
+      <c r="B41" s="71"/>
+      <c r="C41" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>162</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F41" s="44">
+      <c r="F41" s="30">
         <v>1</v>
       </c>
-      <c r="G41" s="59" t="s">
+      <c r="G41" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="52"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="40">
-        <v>30</v>
-      </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="43" t="s">
+      <c r="A42" s="27">
+        <v>29</v>
+      </c>
+      <c r="B42" s="71"/>
+      <c r="C42" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="29" t="s">
         <v>167</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F42" s="44">
+      <c r="F42" s="30">
         <v>1</v>
       </c>
-      <c r="G42" s="59" t="s">
+      <c r="G42" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="H42" s="52"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-    </row>
-    <row r="43" spans="1:19" ht="14.25" thickBot="1">
-      <c r="A43" s="71"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="A44" s="81"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="84"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="27">
+        <v>30</v>
+      </c>
+      <c r="B43" s="71"/>
+      <c r="C43" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" s="30">
+        <v>1</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="36"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+    </row>
+    <row r="44" spans="1:19" ht="14.25" thickBot="1">
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="81"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="84"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="66"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="81"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="84"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="88"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="66"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="88"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="88"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="88"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="88"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="88"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="88"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="88"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="88"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="88"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="88"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="88"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="88"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="88"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="88"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="88"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="88"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="88"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="88"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="88"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
     </row>
     <row r="65" spans="1:19">
-      <c r="A65" s="88"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="88"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="14"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
     </row>
     <row r="66" spans="1:19">
-      <c r="A66" s="88"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="14"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
     </row>
     <row r="67" spans="1:19">
-      <c r="A67" s="88"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="88"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
+      <c r="A67" s="70"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
     </row>
     <row r="68" spans="1:19">
-      <c r="A68" s="88"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="14"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
     </row>
     <row r="69" spans="1:19">
-      <c r="A69" s="88"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
     </row>
     <row r="70" spans="1:19">
-      <c r="A70" s="88"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
     </row>
     <row r="71" spans="1:19">
-      <c r="A71" s="88"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="88"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
+      <c r="A71" s="70"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
     </row>
     <row r="72" spans="1:19">
-      <c r="A72" s="88"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="88"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="14"/>
+      <c r="A72" s="70"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
     </row>
     <row r="73" spans="1:19">
-      <c r="A73" s="88"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="88"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="88"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="70"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:G2"/>
@@ -3830,6 +3857,16 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B43"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -3849,7 +3886,7 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -3865,22 +3902,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>

--- a/珠海藤仓基板压合设备设计资料.xlsx
+++ b/珠海藤仓基板压合设备设计资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="物料清单" sheetId="5" r:id="rId1"/>
@@ -1412,6 +1412,48 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1419,48 +1461,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1806,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -1823,11 +1823,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -1851,22 +1851,22 @@
       <c r="A2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="84"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="77" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="77"/>
+      <c r="I2" s="74"/>
       <c r="J2" s="14" t="s">
         <v>87</v>
       </c>
@@ -1884,22 +1884,22 @@
       <c r="A3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="84"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="77" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="77"/>
+      <c r="I3" s="74"/>
       <c r="J3" s="16"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -1915,20 +1915,20 @@
       <c r="A4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="73"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="77"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="19"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -1965,10 +1965,10 @@
       <c r="A6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="24" t="s">
         <v>94</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="A7" s="27">
         <v>1</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="82" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -2037,7 +2037,7 @@
       <c r="A8" s="27">
         <v>2</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="11" t="s">
         <v>104</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="A9" s="27">
         <v>3</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="84" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="35" t="s">
@@ -2105,7 +2105,7 @@
       <c r="A10" s="27">
         <v>4</v>
       </c>
-      <c r="B10" s="81"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="35" t="s">
         <v>109</v>
       </c>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="27"/>
-      <c r="B11" s="81"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="35" t="s">
         <v>111</v>
       </c>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="27"/>
-      <c r="B12" s="81"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="35" t="s">
         <v>113</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="A13" s="27">
         <v>5</v>
       </c>
-      <c r="B13" s="81"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="28" t="s">
         <v>115</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="A14" s="27">
         <v>6</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="85" t="s">
         <v>117</v>
       </c>
       <c r="C14" s="40" t="s">
@@ -2270,7 +2270,7 @@
       <c r="A15" s="27">
         <v>7</v>
       </c>
-      <c r="B15" s="71"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="40" t="s">
         <v>122</v>
       </c>
@@ -2303,7 +2303,7 @@
       <c r="A16" s="27">
         <v>8</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="40" t="s">
         <v>124</v>
       </c>
@@ -2336,7 +2336,7 @@
       <c r="A17" s="27">
         <v>9</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="40" t="s">
         <v>71</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="A18" s="27">
         <v>10</v>
       </c>
-      <c r="B18" s="71"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="40" t="s">
         <v>70</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="A19" s="27">
         <v>11</v>
       </c>
-      <c r="B19" s="71"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="40" t="s">
         <v>128</v>
       </c>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="27"/>
-      <c r="B20" s="71"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="40" t="s">
         <v>129</v>
       </c>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="27"/>
-      <c r="B21" s="71"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="40" t="s">
         <v>132</v>
       </c>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="27"/>
-      <c r="B22" s="71"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="40" t="s">
         <v>188</v>
       </c>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="27"/>
-      <c r="B23" s="71"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="40" t="s">
         <v>135</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="A24" s="27">
         <v>12</v>
       </c>
-      <c r="B24" s="71"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="40" t="s">
         <v>136</v>
       </c>
@@ -2578,7 +2578,7 @@
       <c r="A25" s="27">
         <v>13</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="85" t="s">
         <v>139</v>
       </c>
       <c r="C25" s="40" t="s">
@@ -2611,7 +2611,7 @@
       <c r="A26" s="27">
         <v>14</v>
       </c>
-      <c r="B26" s="71"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="40" t="s">
         <v>142</v>
       </c>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="27"/>
-      <c r="B27" s="71"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="40" t="s">
         <v>145</v>
       </c>
@@ -2675,7 +2675,7 @@
       <c r="A28" s="27">
         <v>15</v>
       </c>
-      <c r="B28" s="71"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="47" t="s">
         <v>146</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c r="A30" s="27">
         <v>17</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="86" t="s">
         <v>152</v>
       </c>
       <c r="C30" s="40" t="s">
@@ -2774,7 +2774,7 @@
       <c r="A31" s="27">
         <v>18</v>
       </c>
-      <c r="B31" s="72"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="40" t="s">
         <v>72</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="A32" s="27">
         <v>19</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="85" t="s">
         <v>156</v>
       </c>
       <c r="C32" s="40" t="s">
@@ -2842,7 +2842,7 @@
       <c r="A33" s="27">
         <v>20</v>
       </c>
-      <c r="B33" s="71"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="40" t="s">
         <v>76</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="A34" s="27">
         <v>21</v>
       </c>
-      <c r="B34" s="71"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="40" t="s">
         <v>79</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="A35" s="27">
         <v>22</v>
       </c>
-      <c r="B35" s="71"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="40" t="s">
         <v>81</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="A36" s="27">
         <v>23</v>
       </c>
-      <c r="B36" s="71"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="40" t="s">
         <v>80</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="A37" s="27">
         <v>24</v>
       </c>
-      <c r="B37" s="71"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="40" t="s">
         <v>159</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="A38" s="27">
         <v>25</v>
       </c>
-      <c r="B38" s="71"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="40" t="s">
         <v>160</v>
       </c>
@@ -3018,7 +3018,7 @@
       <c r="A39" s="27">
         <v>26</v>
       </c>
-      <c r="B39" s="71"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="40" t="s">
         <v>161</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="A40" s="27">
         <v>27</v>
       </c>
-      <c r="B40" s="71"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="40" t="s">
         <v>164</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="A41" s="27">
         <v>28</v>
       </c>
-      <c r="B41" s="71"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="40" t="s">
         <v>165</v>
       </c>
@@ -3117,7 +3117,7 @@
       <c r="A42" s="27">
         <v>29</v>
       </c>
-      <c r="B42" s="71"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="40" t="s">
         <v>166</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="A43" s="27">
         <v>30</v>
       </c>
-      <c r="B43" s="71"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="40" t="s">
         <v>168</v>
       </c>
@@ -3850,6 +3850,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B43"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:G2"/>
@@ -3857,16 +3867,6 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B43"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -3886,8 +3886,8 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -4389,15 +4389,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4413,13 +4414,31 @@
     </row>
     <row r="2" spans="1:3">
       <c r="C2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3">
-        <f>10/2*1000</f>
-        <v>5000</v>
+        <f>C1/C2</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4">
+        <f>C2*50</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <f>3/256</f>
+        <v>1.171875E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17">
+        <f>0.9*333</f>
+        <v>299.7</v>
       </c>
     </row>
   </sheetData>

--- a/珠海藤仓基板压合设备设计资料.xlsx
+++ b/珠海藤仓基板压合设备设计资料.xlsx
@@ -1412,6 +1412,39 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1421,9 +1454,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1431,36 +1461,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,11 +1823,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -1851,22 +1851,22 @@
       <c r="A2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="73"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74" t="s">
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="74"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="14" t="s">
         <v>87</v>
       </c>
@@ -1884,22 +1884,22 @@
       <c r="A3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="74" t="s">
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="74"/>
+      <c r="I3" s="77"/>
       <c r="J3" s="16"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -1915,20 +1915,20 @@
       <c r="A4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="87"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="74" t="s">
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="74"/>
+      <c r="I4" s="77"/>
       <c r="J4" s="19"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -1965,10 +1965,10 @@
       <c r="A6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="81"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="24" t="s">
         <v>94</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="A7" s="27">
         <v>1</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="79" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -2037,7 +2037,7 @@
       <c r="A8" s="27">
         <v>2</v>
       </c>
-      <c r="B8" s="83"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="11" t="s">
         <v>104</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="A9" s="27">
         <v>3</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="81" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="35" t="s">
@@ -2105,7 +2105,7 @@
       <c r="A10" s="27">
         <v>4</v>
       </c>
-      <c r="B10" s="84"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="35" t="s">
         <v>109</v>
       </c>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="27"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="35" t="s">
         <v>111</v>
       </c>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="27"/>
-      <c r="B12" s="84"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="35" t="s">
         <v>113</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="A13" s="27">
         <v>5</v>
       </c>
-      <c r="B13" s="84"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="28" t="s">
         <v>115</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="A14" s="27">
         <v>6</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="71" t="s">
         <v>117</v>
       </c>
       <c r="C14" s="40" t="s">
@@ -2270,7 +2270,7 @@
       <c r="A15" s="27">
         <v>7</v>
       </c>
-      <c r="B15" s="85"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="40" t="s">
         <v>122</v>
       </c>
@@ -2303,7 +2303,7 @@
       <c r="A16" s="27">
         <v>8</v>
       </c>
-      <c r="B16" s="85"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="40" t="s">
         <v>124</v>
       </c>
@@ -2336,7 +2336,7 @@
       <c r="A17" s="27">
         <v>9</v>
       </c>
-      <c r="B17" s="85"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="40" t="s">
         <v>71</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="A18" s="27">
         <v>10</v>
       </c>
-      <c r="B18" s="85"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="40" t="s">
         <v>70</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="A19" s="27">
         <v>11</v>
       </c>
-      <c r="B19" s="85"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="40" t="s">
         <v>128</v>
       </c>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="27"/>
-      <c r="B20" s="85"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="40" t="s">
         <v>129</v>
       </c>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="27"/>
-      <c r="B21" s="85"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="40" t="s">
         <v>132</v>
       </c>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="27"/>
-      <c r="B22" s="85"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="40" t="s">
         <v>188</v>
       </c>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="27"/>
-      <c r="B23" s="85"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="40" t="s">
         <v>135</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="A24" s="27">
         <v>12</v>
       </c>
-      <c r="B24" s="85"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="40" t="s">
         <v>136</v>
       </c>
@@ -2578,7 +2578,7 @@
       <c r="A25" s="27">
         <v>13</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="71" t="s">
         <v>139</v>
       </c>
       <c r="C25" s="40" t="s">
@@ -2611,7 +2611,7 @@
       <c r="A26" s="27">
         <v>14</v>
       </c>
-      <c r="B26" s="85"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="40" t="s">
         <v>142</v>
       </c>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="27"/>
-      <c r="B27" s="85"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="40" t="s">
         <v>145</v>
       </c>
@@ -2675,7 +2675,7 @@
       <c r="A28" s="27">
         <v>15</v>
       </c>
-      <c r="B28" s="85"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="47" t="s">
         <v>146</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c r="A30" s="27">
         <v>17</v>
       </c>
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="72" t="s">
         <v>152</v>
       </c>
       <c r="C30" s="40" t="s">
@@ -2774,7 +2774,7 @@
       <c r="A31" s="27">
         <v>18</v>
       </c>
-      <c r="B31" s="86"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="40" t="s">
         <v>72</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="A32" s="27">
         <v>19</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="71" t="s">
         <v>156</v>
       </c>
       <c r="C32" s="40" t="s">
@@ -2842,7 +2842,7 @@
       <c r="A33" s="27">
         <v>20</v>
       </c>
-      <c r="B33" s="85"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="40" t="s">
         <v>76</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="A34" s="27">
         <v>21</v>
       </c>
-      <c r="B34" s="85"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="40" t="s">
         <v>79</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="A35" s="27">
         <v>22</v>
       </c>
-      <c r="B35" s="85"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="40" t="s">
         <v>81</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="A36" s="27">
         <v>23</v>
       </c>
-      <c r="B36" s="85"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="40" t="s">
         <v>80</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="A37" s="27">
         <v>24</v>
       </c>
-      <c r="B37" s="85"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="40" t="s">
         <v>159</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="A38" s="27">
         <v>25</v>
       </c>
-      <c r="B38" s="85"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="40" t="s">
         <v>160</v>
       </c>
@@ -3018,7 +3018,7 @@
       <c r="A39" s="27">
         <v>26</v>
       </c>
-      <c r="B39" s="85"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="40" t="s">
         <v>161</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="A40" s="27">
         <v>27</v>
       </c>
-      <c r="B40" s="85"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="40" t="s">
         <v>164</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="A41" s="27">
         <v>28</v>
       </c>
-      <c r="B41" s="85"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="40" t="s">
         <v>165</v>
       </c>
@@ -3117,7 +3117,7 @@
       <c r="A42" s="27">
         <v>29</v>
       </c>
-      <c r="B42" s="85"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="40" t="s">
         <v>166</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="A43" s="27">
         <v>30</v>
       </c>
-      <c r="B43" s="85"/>
+      <c r="B43" s="71"/>
       <c r="C43" s="40" t="s">
         <v>168</v>
       </c>
@@ -3850,16 +3850,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B43"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:G2"/>
@@ -3867,6 +3857,16 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B43"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -3887,7 +3887,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E12" sqref="E12:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4392,7 +4392,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4401,7 +4401,7 @@
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>183</v>
       </c>
@@ -4412,24 +4412,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="C2">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="C3">
         <f>C1/C2</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="C4">
         <f>C2*50</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D4">
+        <f>C4/100*4</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <f>3/256</f>
         <v>1.171875E-2</v>
